--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>70.73323221905815</v>
+        <v>41.61180956863795</v>
       </c>
       <c r="C2">
-        <v>3.199500496857631</v>
+        <v>1.882241221179911</v>
       </c>
       <c r="D2">
-        <v>17.81141654252495</v>
+        <v>10.47831761766344</v>
       </c>
       <c r="E2">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="F2">
-        <v>21.83202325358392</v>
+        <v>12.84360922900728</v>
       </c>
       <c r="G2">
-        <v>116.7663744183983</v>
+        <v>68.69274856931415</v>
       </c>
       <c r="H2">
-        <v>2.570268987670286</v>
+        <v>1.512069225450927</v>
       </c>
       <c r="I2">
-        <v>261.5991422745241</v>
+        <v>153.8967377870446</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>70.73323221905815</v>
+        <v>41.61180956863795</v>
       </c>
       <c r="C3">
-        <v>4.799250745286445</v>
+        <v>2.823361831769867</v>
       </c>
       <c r="D3">
-        <v>21.47847288951538</v>
+        <v>12.63561830365297</v>
       </c>
       <c r="E3">
-        <v>28.15509809057102</v>
+        <v>16.56342490475778</v>
       </c>
       <c r="F3">
-        <v>25.9073342609196</v>
+        <v>15.24108295175531</v>
       </c>
       <c r="G3">
-        <v>111.5118875695704</v>
+        <v>65.60157488369501</v>
       </c>
       <c r="H3">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="I3">
-        <v>264.2987884333679</v>
+        <v>155.4849185945695</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>83.7569451890156</v>
+        <v>49.27355846630044</v>
       </c>
       <c r="C4">
-        <v>3.999375621072037</v>
+        <v>2.352801526474889</v>
       </c>
       <c r="D4">
-        <v>24.09779885165141</v>
+        <v>14.17654736507407</v>
       </c>
       <c r="E4">
-        <v>32.40492421744965</v>
+        <v>19.06356451302313</v>
       </c>
       <c r="F4">
-        <v>29.1093643381119</v>
+        <v>17.12481230534304</v>
       </c>
       <c r="G4">
-        <v>67.72449716267104</v>
+        <v>39.84179417020221</v>
       </c>
       <c r="H4">
-        <v>5.140537975340572</v>
+        <v>3.024138450901854</v>
       </c>
       <c r="I4">
-        <v>246.2334433553122</v>
+        <v>144.8572167973196</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>95.91241062764266</v>
+        <v>56.42452410411874</v>
       </c>
       <c r="C5">
-        <v>2.559600397486104</v>
+        <v>1.505792976943929</v>
       </c>
       <c r="D5">
-        <v>24.62166404407862</v>
+        <v>14.48473317735829</v>
       </c>
       <c r="E5">
-        <v>35.06106554674881</v>
+        <v>20.62615176818895</v>
       </c>
       <c r="F5">
-        <v>21.10428914513113</v>
+        <v>12.4154889213737</v>
       </c>
       <c r="G5">
-        <v>46.70654976735933</v>
+        <v>27.47709942772565</v>
       </c>
       <c r="H5">
-        <v>2.28468354459581</v>
+        <v>1.344061533734158</v>
       </c>
       <c r="I5">
-        <v>228.2502630730425</v>
+        <v>134.2778519094434</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>115.5926880044673</v>
+        <v>68.00227799391983</v>
       </c>
       <c r="C6">
-        <v>5.599125869500852</v>
+        <v>3.293922137064845</v>
       </c>
       <c r="D6">
-        <v>24.62166404407862</v>
+        <v>14.48473317735829</v>
       </c>
       <c r="E6">
-        <v>30.28001115401034</v>
+        <v>17.81349470889045</v>
       </c>
       <c r="F6">
-        <v>15.86460356427099</v>
+        <v>9.333022706411954</v>
       </c>
       <c r="G6">
-        <v>22.76944301158766</v>
+        <v>13.39508597101626</v>
       </c>
       <c r="H6">
-        <v>6.854050633787428</v>
+        <v>4.032184601202473</v>
       </c>
       <c r="I6">
-        <v>221.5815862817032</v>
+        <v>130.3547212958641</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>108.2994087412911</v>
+        <v>63.71169861122883</v>
       </c>
       <c r="C7">
-        <v>3.039525472014748</v>
+        <v>1.788129160120916</v>
       </c>
       <c r="D7">
-        <v>16.76368615767054</v>
+        <v>9.861945993095009</v>
       </c>
       <c r="E7">
-        <v>43.56071780050612</v>
+        <v>25.6264309847196</v>
       </c>
       <c r="F7">
-        <v>9.314996588195806</v>
+        <v>5.479939937709772</v>
       </c>
       <c r="G7">
-        <v>11.67663744183983</v>
+        <v>6.869274856931413</v>
       </c>
       <c r="H7">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="I7">
-        <v>194.3684848599651</v>
+        <v>114.3454656941062</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>80.80490358249192</v>
+        <v>47.53689538283027</v>
       </c>
       <c r="C8">
-        <v>2.559600397486104</v>
+        <v>1.505792976943929</v>
       </c>
       <c r="D8">
-        <v>15.71595577281613</v>
+        <v>9.245574368526567</v>
       </c>
       <c r="E8">
-        <v>36.12352207846848</v>
+        <v>21.25118667025528</v>
       </c>
       <c r="F8">
-        <v>7.131794262837416</v>
+        <v>4.195579014809044</v>
       </c>
       <c r="G8">
-        <v>15.17962867439178</v>
+        <v>8.93005731401084</v>
       </c>
       <c r="H8">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="I8">
-        <v>158.9433319838642</v>
+        <v>93.50512418595979</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>63.78725196841412</v>
+        <v>37.52554348988465</v>
       </c>
       <c r="C9">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="D9">
-        <v>11.5250342333985</v>
+        <v>6.780087870252815</v>
       </c>
       <c r="E9">
-        <v>38.2484351419078</v>
+        <v>22.50125647438794</v>
       </c>
       <c r="F9">
-        <v>4.511951472407344</v>
+        <v>2.654345907328171</v>
       </c>
       <c r="G9">
-        <v>11.67663744183983</v>
+        <v>6.869274856931413</v>
       </c>
       <c r="H9">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="I9">
-        <v>134.1255171337344</v>
+        <v>78.90499701723321</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>47.17478253562387</v>
+        <v>27.75255711819962</v>
       </c>
       <c r="C10">
-        <v>2.399625372643222</v>
+        <v>1.411680915884934</v>
       </c>
       <c r="D10">
-        <v>3.143191154563227</v>
+        <v>1.849114873705313</v>
       </c>
       <c r="E10">
-        <v>29.21755462229068</v>
+        <v>17.18845980682413</v>
       </c>
       <c r="F10">
-        <v>4.366404650716785</v>
+        <v>2.568721845801456</v>
       </c>
       <c r="G10">
-        <v>11.09280556974784</v>
+        <v>6.525811114084845</v>
       </c>
       <c r="H10">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I10">
-        <v>97.67994934866012</v>
+        <v>57.46435336621706</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>28.0154536775975</v>
+        <v>16.48127318430504</v>
       </c>
       <c r="C11">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="D11">
-        <v>5.76251711669925</v>
+        <v>3.390043935126407</v>
       </c>
       <c r="E11">
-        <v>16.99930450751458</v>
+        <v>10.00055843306131</v>
       </c>
       <c r="F11">
-        <v>4.220857829026225</v>
+        <v>2.483097784274741</v>
       </c>
       <c r="G11">
-        <v>9.341309953471868</v>
+        <v>5.495419885545132</v>
       </c>
       <c r="H11">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I11">
-        <v>67.15026431825871</v>
+        <v>39.50397746057211</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>17.53860013287612</v>
+        <v>10.31782184885213</v>
       </c>
       <c r="C12">
-        <v>1.919700298114578</v>
+        <v>1.129344732707947</v>
       </c>
       <c r="D12">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="E12">
-        <v>9.56210878547695</v>
+        <v>5.625314118596985</v>
       </c>
       <c r="F12">
-        <v>1.601015038596155</v>
+        <v>0.9418646767938671</v>
       </c>
       <c r="G12">
-        <v>6.42215059301191</v>
+        <v>3.778101171312278</v>
       </c>
       <c r="I12">
-        <v>38.09130523293012</v>
+        <v>22.40881817283164</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>10.30320403845528</v>
+        <v>6.061294683484095</v>
       </c>
       <c r="C13">
-        <v>0.959850149057289</v>
+        <v>0.5646723663539736</v>
       </c>
       <c r="D13">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="E13">
-        <v>4.781054392738475</v>
+        <v>2.812657059298493</v>
       </c>
       <c r="F13">
-        <v>4.220857829026225</v>
+        <v>2.483097784274741</v>
       </c>
       <c r="G13">
-        <v>9.341309953471868</v>
+        <v>5.495419885545132</v>
       </c>
       <c r="I13">
-        <v>30.65400674760354</v>
+        <v>18.03351340352487</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>6.251382225579604</v>
+        <v>3.677639470877988</v>
       </c>
       <c r="C14">
-        <v>0.7998751242144077</v>
+        <v>0.4705603052949778</v>
       </c>
       <c r="D14">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="E14">
-        <v>0.5312282658598305</v>
+        <v>0.3125174510331659</v>
       </c>
       <c r="F14">
-        <v>4.366404650716785</v>
+        <v>2.568721845801456</v>
       </c>
       <c r="G14">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="I14">
-        <v>21.11030018084813</v>
+        <v>12.41902516686566</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>5.498901031759837</v>
+        <v>3.234960645679711</v>
       </c>
       <c r="C15">
-        <v>1.439775223585933</v>
+        <v>0.8470085495309601</v>
       </c>
       <c r="D15">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="E15">
-        <v>1.593684797579491</v>
+        <v>0.9375523530994976</v>
       </c>
       <c r="F15">
-        <v>2.619842790430071</v>
+        <v>1.541233107480874</v>
       </c>
       <c r="G15">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="H15">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I15">
-        <v>20.07533400848011</v>
+        <v>11.81016262908167</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>4.862186175450804</v>
+        <v>2.860386255127325</v>
       </c>
       <c r="C16">
-        <v>0.4799250745286445</v>
+        <v>0.2823361831769868</v>
       </c>
       <c r="D16">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="E16">
-        <v>4.249826126878644</v>
+        <v>2.500139608265327</v>
       </c>
       <c r="F16">
-        <v>2.328749147048951</v>
+        <v>1.369984984427443</v>
       </c>
       <c r="G16">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="I16">
-        <v>20.55823124595734</v>
+        <v>12.09424731257094</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>12.56064761991458</v>
+        <v>7.389331159078918</v>
       </c>
       <c r="C17">
-        <v>1.439775223585933</v>
+        <v>0.8470085495309601</v>
       </c>
       <c r="D17">
-        <v>4.190921539417634</v>
+        <v>2.465486498273752</v>
       </c>
       <c r="E17">
-        <v>3.187369595158982</v>
+        <v>1.875104706198995</v>
       </c>
       <c r="F17">
-        <v>5.67632604593182</v>
+        <v>3.339338399541893</v>
       </c>
       <c r="G17">
-        <v>13.42813305811581</v>
+        <v>7.89966608547113</v>
       </c>
       <c r="H17">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I17">
-        <v>40.76875852519923</v>
+        <v>23.98394308981242</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>32.87763985304829</v>
+        <v>19.34165943943238</v>
       </c>
       <c r="C18">
-        <v>1.119825173900171</v>
+        <v>0.6587844274129693</v>
       </c>
       <c r="D18">
-        <v>9.429573463689678</v>
+        <v>5.547344621115943</v>
       </c>
       <c r="E18">
-        <v>19.1242175709539</v>
+        <v>11.25062823719397</v>
       </c>
       <c r="F18">
-        <v>6.695153797765736</v>
+        <v>3.938706830228899</v>
       </c>
       <c r="G18">
-        <v>29.77542547669156</v>
+        <v>17.51665088517511</v>
       </c>
       <c r="H18">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="I18">
-        <v>100.1641771083472</v>
+        <v>58.92580520742635</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>63.26630344961578</v>
+        <v>37.21907353397815</v>
       </c>
       <c r="C19">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="D19">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="E19">
-        <v>37.71720687604797</v>
+        <v>22.18873902335478</v>
       </c>
       <c r="F19">
-        <v>12.80812030876924</v>
+        <v>7.534917414350937</v>
       </c>
       <c r="G19">
-        <v>42.03589479062339</v>
+        <v>24.72938948495308</v>
       </c>
       <c r="H19">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="I19">
-        <v>173.8811085089395</v>
+        <v>102.2929017643302</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>108.8782404288448</v>
+        <v>64.05222078445827</v>
       </c>
       <c r="C20">
-        <v>3.039525472014748</v>
+        <v>1.788129160120916</v>
       </c>
       <c r="D20">
-        <v>18.33528173495215</v>
+        <v>10.78650342994766</v>
       </c>
       <c r="E20">
-        <v>45.68563086394543</v>
+        <v>26.87650078885226</v>
       </c>
       <c r="F20">
-        <v>15.86460356427099</v>
+        <v>9.333022706411954</v>
       </c>
       <c r="G20">
-        <v>58.96701908129115</v>
+        <v>34.68983802750365</v>
       </c>
       <c r="H20">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="I20">
-        <v>252.4838138037661</v>
+        <v>148.5342610475953</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>121.9019533988023</v>
+        <v>71.71396968212076</v>
       </c>
       <c r="C21">
-        <v>3.359475521700511</v>
+        <v>1.976353282238907</v>
       </c>
       <c r="D21">
-        <v>24.09779885165141</v>
+        <v>14.17654736507407</v>
       </c>
       <c r="E21">
-        <v>38.77966340776763</v>
+        <v>22.81377392542111</v>
       </c>
       <c r="F21">
-        <v>18.04780588962938</v>
+        <v>10.61738362931269</v>
       </c>
       <c r="G21">
-        <v>70.643656523131</v>
+        <v>41.55911288443507</v>
       </c>
       <c r="H21">
-        <v>11.70900316605352</v>
+        <v>6.888315360387558</v>
       </c>
       <c r="I21">
-        <v>288.5393567587358</v>
+        <v>169.7454561289902</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>85.14614123914447</v>
+        <v>50.0908116820511</v>
       </c>
       <c r="C22">
-        <v>5.27917581981509</v>
+        <v>3.105698014946854</v>
       </c>
       <c r="D22">
-        <v>24.09779885165141</v>
+        <v>14.17654736507407</v>
       </c>
       <c r="E22">
-        <v>35.06106554674881</v>
+        <v>20.62615176818895</v>
       </c>
       <c r="F22">
-        <v>24.74295968739512</v>
+        <v>14.55609045954158</v>
       </c>
       <c r="G22">
-        <v>126.1076843718702</v>
+        <v>74.18816845485929</v>
       </c>
       <c r="H22">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="I22">
-        <v>302.148338175072</v>
+        <v>177.7515138949625</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>59.90907966180455</v>
+        <v>35.24404492924737</v>
       </c>
       <c r="C23">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="D23">
-        <v>19.38301211980656</v>
+        <v>11.4028750545161</v>
       </c>
       <c r="E23">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="F23">
-        <v>31.29256666347029</v>
+        <v>18.40917322824377</v>
       </c>
       <c r="G23">
-        <v>115.5987106742144</v>
+        <v>68.00582108362102</v>
       </c>
       <c r="H23">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="I23">
-        <v>262.1361213888495</v>
+        <v>154.2126384174363</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>67.49177476875764</v>
+        <v>39.70488539855307</v>
       </c>
       <c r="C24">
-        <v>5.919075919186615</v>
+        <v>3.482146259182837</v>
       </c>
       <c r="D24">
-        <v>15.71595577281613</v>
+        <v>9.245574368526567</v>
       </c>
       <c r="E24">
-        <v>27.09264155885136</v>
+        <v>15.93839000269146</v>
       </c>
       <c r="F24">
-        <v>28.96381751642134</v>
+        <v>17.03918824381633</v>
       </c>
       <c r="G24">
-        <v>144.7903042788139</v>
+        <v>85.17900822594953</v>
       </c>
       <c r="H24">
-        <v>7.425221519936382</v>
+        <v>4.368199984636012</v>
       </c>
       <c r="I24">
-        <v>297.3987913347833</v>
+        <v>174.9573924833558</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>63.03477077459436</v>
+        <v>37.08286466468636</v>
       </c>
       <c r="C25">
-        <v>5.439150844657971</v>
+        <v>3.19981007600585</v>
       </c>
       <c r="D25">
-        <v>25.66939442893302</v>
+        <v>15.10110480192673</v>
       </c>
       <c r="E25">
-        <v>35.59229381260864</v>
+        <v>20.93866921922212</v>
       </c>
       <c r="F25">
-        <v>24.88850650908568</v>
+        <v>14.6417145210683</v>
       </c>
       <c r="G25">
-        <v>141.871144918354</v>
+        <v>83.4616895117167</v>
       </c>
       <c r="H25">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="I25">
-        <v>299.9222866051274</v>
+        <v>176.4419450952273</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>64.19243414970165</v>
+        <v>37.76390901114526</v>
       </c>
       <c r="C26">
-        <v>3.359475521700511</v>
+        <v>1.976353282238907</v>
       </c>
       <c r="D26">
-        <v>18.33528173495215</v>
+        <v>10.78650342994766</v>
       </c>
       <c r="E26">
-        <v>24.96772849541203</v>
+        <v>14.6883201985588</v>
       </c>
       <c r="F26">
-        <v>25.17960015246679</v>
+        <v>14.81296264412173</v>
       </c>
       <c r="G26">
-        <v>155.2992779764698</v>
+        <v>91.36135559718784</v>
       </c>
       <c r="H26">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="I26">
-        <v>294.7608233475967</v>
+        <v>173.4054964638014</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>72.75914312549592</v>
+        <v>42.803637174941</v>
       </c>
       <c r="C27">
-        <v>2.399625372643222</v>
+        <v>1.411680915884934</v>
       </c>
       <c r="D27">
-        <v>36.14669827747713</v>
+        <v>21.2648210476111</v>
       </c>
       <c r="E27">
-        <v>27.62386982471118</v>
+        <v>16.25090745372463</v>
       </c>
       <c r="F27">
-        <v>25.17960015246679</v>
+        <v>14.81296264412173</v>
       </c>
       <c r="G27">
-        <v>98.08375451145459</v>
+        <v>57.7019087982239</v>
       </c>
       <c r="H27">
-        <v>5.711708861489523</v>
+        <v>3.360153834335394</v>
       </c>
       <c r="I27">
-        <v>267.9044001257384</v>
+        <v>157.6060718688427</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>75.76906790077501</v>
+        <v>44.57435247573411</v>
       </c>
       <c r="C28">
-        <v>4.479300695600682</v>
+        <v>2.635137709651877</v>
       </c>
       <c r="D28">
-        <v>17.81141654252495</v>
+        <v>10.47831761766344</v>
       </c>
       <c r="E28">
-        <v>26.0301850271317</v>
+        <v>15.31335510062513</v>
       </c>
       <c r="F28">
-        <v>26.92616201275351</v>
+        <v>15.84045138244231</v>
       </c>
       <c r="G28">
-        <v>124.9400206276862</v>
+        <v>73.50124096916616</v>
       </c>
       <c r="H28">
-        <v>4.283781646117143</v>
+        <v>2.520115375751545</v>
       </c>
       <c r="I28">
-        <v>280.2399344525892</v>
+        <v>164.8629706310346</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>79.47359070111848</v>
+        <v>46.75369438440257</v>
       </c>
       <c r="C29">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="D29">
-        <v>27.24099000621463</v>
+        <v>16.02566223877939</v>
       </c>
       <c r="E29">
-        <v>35.59229381260864</v>
+        <v>20.93866921922212</v>
       </c>
       <c r="F29">
-        <v>24.30631922232344</v>
+        <v>14.29921827496144</v>
       </c>
       <c r="G29">
-        <v>93.99693140681065</v>
+        <v>55.29766259829788</v>
       </c>
       <c r="H29">
-        <v>4.283781646117143</v>
+        <v>2.520115375751545</v>
       </c>
       <c r="I29">
-        <v>267.1335571429933</v>
+        <v>157.1525909462408</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>106.2156146660979</v>
+        <v>62.48581878760285</v>
       </c>
       <c r="C30">
-        <v>3.999375621072037</v>
+        <v>2.352801526474889</v>
       </c>
       <c r="D30">
-        <v>21.47847288951538</v>
+        <v>12.63561830365297</v>
       </c>
       <c r="E30">
-        <v>33.99860901502915</v>
+        <v>20.00111686612262</v>
       </c>
       <c r="F30">
-        <v>15.86460356427099</v>
+        <v>9.333022706411954</v>
       </c>
       <c r="G30">
-        <v>70.05982465103899</v>
+        <v>41.21564914158849</v>
       </c>
       <c r="H30">
-        <v>3.712610759968191</v>
+        <v>2.184099992318006</v>
       </c>
       <c r="I30">
-        <v>255.3291111669927</v>
+        <v>150.2081273241718</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>102.9741572157974</v>
+        <v>60.57889461751795</v>
       </c>
       <c r="C31">
-        <v>5.919075919186615</v>
+        <v>3.482146259182837</v>
       </c>
       <c r="D31">
-        <v>16.76368615767054</v>
+        <v>9.861945993095009</v>
       </c>
       <c r="E31">
-        <v>51.52914178840356</v>
+        <v>30.3141927502171</v>
       </c>
       <c r="F31">
-        <v>7.568434727909095</v>
+        <v>4.45245119938919</v>
       </c>
       <c r="G31">
-        <v>35.6137441976115</v>
+        <v>20.95128831364082</v>
       </c>
       <c r="H31">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I31">
-        <v>220.9394108927276</v>
+        <v>129.9769345164764</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>88.15606601442347</v>
+        <v>51.8615269828442</v>
       </c>
       <c r="C32">
-        <v>7.198876117929668</v>
+        <v>4.235042747654801</v>
       </c>
       <c r="D32">
-        <v>12.0488994258257</v>
+        <v>7.088273682537035</v>
       </c>
       <c r="E32">
-        <v>45.15440259808561</v>
+        <v>26.56398333781909</v>
       </c>
       <c r="F32">
-        <v>7.859528371290214</v>
+        <v>4.623699322442621</v>
       </c>
       <c r="G32">
-        <v>29.77542547669156</v>
+        <v>17.51665088517511</v>
       </c>
       <c r="H32">
-        <v>2.28468354459581</v>
+        <v>1.344061533734158</v>
       </c>
       <c r="I32">
-        <v>192.4778815488421</v>
+        <v>113.233238492207</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>64.01878464343559</v>
+        <v>37.66175235917641</v>
       </c>
       <c r="C33">
-        <v>7.518826167615429</v>
+        <v>4.423266869772793</v>
       </c>
       <c r="D33">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="E33">
-        <v>45.15440259808561</v>
+        <v>26.56398333781909</v>
       </c>
       <c r="F33">
-        <v>5.239685580860143</v>
+        <v>3.082466214961748</v>
       </c>
       <c r="G33">
-        <v>18.68261990694374</v>
+        <v>10.99083977109026</v>
       </c>
       <c r="H33">
-        <v>2.28468354459581</v>
+        <v>1.344061533734158</v>
       </c>
       <c r="I33">
-        <v>156.5194974446437</v>
+        <v>92.07920120594416</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>47.81149739193292</v>
+        <v>28.12713150875201</v>
       </c>
       <c r="C34">
-        <v>5.759100894343733</v>
+        <v>3.38803419812384</v>
       </c>
       <c r="D34">
-        <v>7.857977886408064</v>
+        <v>4.622787184263283</v>
       </c>
       <c r="E34">
-        <v>29.74878288815052</v>
+        <v>17.50097725785729</v>
       </c>
       <c r="F34">
-        <v>3.05648325550175</v>
+        <v>1.798105292061019</v>
       </c>
       <c r="G34">
-        <v>18.68261990694374</v>
+        <v>10.99083977109026</v>
       </c>
       <c r="I34">
-        <v>112.9164622232807</v>
+        <v>66.42787521214771</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>33.34070520309123</v>
+        <v>19.61407717801594</v>
       </c>
       <c r="C35">
-        <v>2.879550447171867</v>
+        <v>1.69401709906192</v>
       </c>
       <c r="D35">
-        <v>5.238651924272043</v>
+        <v>3.08185812284219</v>
       </c>
       <c r="E35">
-        <v>24.43650022955221</v>
+        <v>14.37580274752563</v>
       </c>
       <c r="F35">
-        <v>3.202030077192309</v>
+        <v>1.883729353587734</v>
       </c>
       <c r="G35">
-        <v>11.09280556974784</v>
+        <v>6.525811114084845</v>
       </c>
       <c r="H35">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I35">
-        <v>80.76141433717643</v>
+        <v>47.5113109985518</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>19.04356252051565</v>
+        <v>11.20317949924869</v>
       </c>
       <c r="C36">
-        <v>6.239025968872376</v>
+        <v>3.670370381300828</v>
       </c>
       <c r="D36">
-        <v>0.5238651924272043</v>
+        <v>0.308185812284219</v>
       </c>
       <c r="E36">
-        <v>11.68702184891627</v>
+        <v>6.875383922729651</v>
       </c>
       <c r="F36">
-        <v>9.460543409886368</v>
+        <v>5.565563999236488</v>
       </c>
       <c r="G36">
-        <v>15.76346054648377</v>
+        <v>9.273521056857412</v>
       </c>
       <c r="H36">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I36">
-        <v>63.00306493017612</v>
+        <v>37.06421236337405</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>10.07167136343381</v>
+        <v>5.925085814192312</v>
       </c>
       <c r="C37">
-        <v>3.199500496857631</v>
+        <v>1.882241221179911</v>
       </c>
       <c r="D37">
-        <v>0.5238651924272043</v>
+        <v>0.308185812284219</v>
       </c>
       <c r="E37">
-        <v>4.249826126878644</v>
+        <v>2.500139608265327</v>
       </c>
       <c r="F37">
-        <v>5.96741968931294</v>
+        <v>3.510586522595324</v>
       </c>
       <c r="G37">
-        <v>12.26046931393182</v>
+        <v>7.212738599777987</v>
       </c>
       <c r="H37">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="I37">
-        <v>37.12950851206548</v>
+        <v>21.84300065344539</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>7.235396094420839</v>
+        <v>4.256527165368039</v>
       </c>
       <c r="C38">
-        <v>0.7998751242144077</v>
+        <v>0.4705603052949778</v>
       </c>
       <c r="D38">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="F38">
-        <v>3.784217363954547</v>
+        <v>2.226225599694595</v>
       </c>
       <c r="G38">
-        <v>11.67663744183983</v>
+        <v>6.869274856931413</v>
       </c>
       <c r="H38">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="I38">
-        <v>25.97178362465642</v>
+        <v>15.27899801044131</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>5.26736835673837</v>
+        <v>3.098751776387934</v>
       </c>
       <c r="C39">
-        <v>1.119825173900171</v>
+        <v>0.6587844274129693</v>
       </c>
       <c r="D39">
-        <v>2.619325962136021</v>
+        <v>1.540929061421095</v>
       </c>
       <c r="F39">
-        <v>1.746561860286714</v>
+        <v>1.027488738320582</v>
       </c>
       <c r="G39">
-        <v>10.50897369765585</v>
+        <v>6.182347371238269</v>
       </c>
       <c r="H39">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I39">
-        <v>21.5476404937916</v>
+        <v>12.67630906649762</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>5.325251525493739</v>
+        <v>3.132803993710876</v>
       </c>
       <c r="C40">
-        <v>0.959850149057289</v>
+        <v>0.5646723663539736</v>
       </c>
       <c r="D40">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="E40">
-        <v>4.781054392738475</v>
+        <v>2.812657059298493</v>
       </c>
       <c r="F40">
-        <v>2.91093643381119</v>
+        <v>1.712481230534304</v>
       </c>
       <c r="G40">
-        <v>9.341309953471868</v>
+        <v>5.495419885545132</v>
       </c>
       <c r="H40">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I40">
-        <v>24.93730372557592</v>
+        <v>14.67042154344476</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>13.60254465751118</v>
+        <v>8.002271070891917</v>
       </c>
       <c r="C41">
-        <v>1.279800198743052</v>
+        <v>0.7528964884719646</v>
       </c>
       <c r="D41">
-        <v>2.095460769708817</v>
+        <v>1.232743249136876</v>
       </c>
       <c r="E41">
-        <v>3.718597861018814</v>
+        <v>2.187622157232161</v>
       </c>
       <c r="F41">
-        <v>2.765389612120631</v>
+        <v>1.626857169007589</v>
       </c>
       <c r="G41">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="H41">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I41">
-        <v>38.34317534447676</v>
+        <v>22.55699139762154</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>31.54632697167486</v>
+        <v>18.55845844100466</v>
       </c>
       <c r="C42">
-        <v>2.559600397486104</v>
+        <v>1.505792976943929</v>
       </c>
       <c r="D42">
-        <v>7.857977886408064</v>
+        <v>4.622787184263283</v>
       </c>
       <c r="E42">
-        <v>21.24913063439322</v>
+        <v>12.50069804132664</v>
       </c>
       <c r="F42">
-        <v>7.131794262837416</v>
+        <v>4.195579014809044</v>
       </c>
       <c r="G42">
-        <v>25.68860237204764</v>
+        <v>15.11240468524911</v>
       </c>
       <c r="H42">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="I42">
-        <v>97.74694518329416</v>
+        <v>57.50376649389727</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>62.22440641201923</v>
+        <v>36.60613362216515</v>
       </c>
       <c r="C43">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="D43">
-        <v>8.905708271262474</v>
+        <v>5.239158808831721</v>
       </c>
       <c r="E43">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="F43">
-        <v>12.225933022007</v>
+        <v>7.192421168244076</v>
       </c>
       <c r="G43">
-        <v>32.11075296505955</v>
+        <v>18.89050585656138</v>
       </c>
       <c r="H43">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="I43">
-        <v>157.0858673613122</v>
+        <v>92.41239221642748</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>101.5270779969132</v>
+        <v>59.72758918444438</v>
       </c>
       <c r="C44">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="D44">
-        <v>19.90687731223377</v>
+        <v>11.71106086680032</v>
       </c>
       <c r="E44">
-        <v>46.21685912980525</v>
+        <v>27.18901823988543</v>
       </c>
       <c r="F44">
-        <v>16.30124402934266</v>
+        <v>9.589894890992104</v>
       </c>
       <c r="G44">
-        <v>52.54486848827925</v>
+        <v>30.91173685619138</v>
       </c>
       <c r="H44">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="I44">
-        <v>242.1636026212682</v>
+        <v>142.4629611937408</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>118.4289632734803</v>
+        <v>69.67083664274409</v>
       </c>
       <c r="C45">
-        <v>3.359475521700511</v>
+        <v>1.976353282238907</v>
       </c>
       <c r="D45">
-        <v>22.52620327436979</v>
+        <v>13.25198992822141</v>
       </c>
       <c r="E45">
-        <v>39.8421199394873</v>
+        <v>23.43880882748744</v>
       </c>
       <c r="F45">
-        <v>16.30124402934266</v>
+        <v>9.589894890992104</v>
       </c>
       <c r="G45">
-        <v>61.30234656965913</v>
+        <v>36.06369299888993</v>
       </c>
       <c r="H45">
-        <v>6.568465190712952</v>
+        <v>3.864176909485704</v>
       </c>
       <c r="I45">
-        <v>268.3288177987527</v>
+        <v>157.8557534800596</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>99.67481659674141</v>
+        <v>58.63791823011012</v>
       </c>
       <c r="C46">
-        <v>4.639275720443563</v>
+        <v>2.729249770710871</v>
       </c>
       <c r="D46">
-        <v>28.28872039106904</v>
+        <v>16.64203386334783</v>
       </c>
       <c r="E46">
-        <v>35.59229381260864</v>
+        <v>20.93866921922212</v>
       </c>
       <c r="F46">
-        <v>31.14701984177973</v>
+        <v>18.32354916671705</v>
       </c>
       <c r="G46">
-        <v>118.5178700346743</v>
+        <v>69.72313979785386</v>
       </c>
       <c r="H46">
-        <v>5.140537975340572</v>
+        <v>3.024138450901854</v>
       </c>
       <c r="I46">
-        <v>323.0005343726573</v>
+        <v>190.0186984988637</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>68.30213913133272</v>
+        <v>40.1816164410743</v>
       </c>
       <c r="C47">
-        <v>5.759100894343733</v>
+        <v>3.38803419812384</v>
       </c>
       <c r="D47">
-        <v>16.23982096524334</v>
+        <v>9.553760180810787</v>
       </c>
       <c r="E47">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="F47">
-        <v>38.13326728292658</v>
+        <v>22.43350411999939</v>
       </c>
       <c r="G47">
-        <v>83.48795770915478</v>
+        <v>49.11531522705963</v>
       </c>
       <c r="H47">
-        <v>4.854952532266095</v>
+        <v>2.856130759185085</v>
       </c>
       <c r="I47">
-        <v>248.1197062009972</v>
+        <v>145.9668905372098</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>74.90082036944455</v>
+        <v>44.06356921588996</v>
       </c>
       <c r="C48">
-        <v>6.55897601855814</v>
+        <v>3.858594503418819</v>
       </c>
       <c r="D48">
-        <v>39.28988943204033</v>
+        <v>23.11393592131641</v>
       </c>
       <c r="E48">
-        <v>33.46738074916932</v>
+        <v>19.68859941508945</v>
       </c>
       <c r="F48">
-        <v>36.82334588771155</v>
+        <v>21.66288756625895</v>
       </c>
       <c r="G48">
-        <v>109.1765600812025</v>
+        <v>64.22771991230873</v>
       </c>
       <c r="H48">
-        <v>6.854050633787428</v>
+        <v>4.032184601202473</v>
       </c>
       <c r="I48">
-        <v>307.0710231719138</v>
+        <v>180.6474911354848</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>63.03477077459436</v>
+        <v>37.08286466468636</v>
       </c>
       <c r="C49">
-        <v>5.439150844657971</v>
+        <v>3.19981007600585</v>
       </c>
       <c r="D49">
-        <v>25.66939442893302</v>
+        <v>15.10110480192673</v>
       </c>
       <c r="E49">
-        <v>35.59229381260864</v>
+        <v>20.93866921922212</v>
       </c>
       <c r="F49">
-        <v>24.88850650908568</v>
+        <v>14.6417145210683</v>
       </c>
       <c r="G49">
-        <v>141.871144918354</v>
+        <v>83.4616895117167</v>
       </c>
       <c r="H49">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="I49">
-        <v>299.9222866051274</v>
+        <v>176.4419450952273</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>41.61180956863795</v>
+        <v>70.73323221905815</v>
       </c>
       <c r="C2">
-        <v>1.882241221179911</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="D2">
-        <v>10.47831761766344</v>
+        <v>17.81141654252495</v>
       </c>
       <c r="E2">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F2">
-        <v>12.84360922900728</v>
+        <v>21.83202325358392</v>
       </c>
       <c r="G2">
-        <v>68.69274856931415</v>
+        <v>116.7663744183983</v>
       </c>
       <c r="H2">
-        <v>1.512069225450927</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="I2">
-        <v>153.8967377870446</v>
+        <v>261.5991422745241</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>41.61180956863795</v>
+        <v>70.73323221905815</v>
       </c>
       <c r="C3">
-        <v>2.823361831769867</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="D3">
-        <v>12.63561830365297</v>
+        <v>21.47847288951538</v>
       </c>
       <c r="E3">
-        <v>16.56342490475778</v>
+        <v>28.15509809057102</v>
       </c>
       <c r="F3">
-        <v>15.24108295175531</v>
+        <v>25.9073342609196</v>
       </c>
       <c r="G3">
-        <v>65.60157488369501</v>
+        <v>111.5118875695704</v>
       </c>
       <c r="H3">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I3">
-        <v>155.4849185945695</v>
+        <v>264.2987884333679</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>49.27355846630044</v>
+        <v>83.7569451890156</v>
       </c>
       <c r="C4">
-        <v>2.352801526474889</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="D4">
-        <v>14.17654736507407</v>
+        <v>24.09779885165141</v>
       </c>
       <c r="E4">
-        <v>19.06356451302313</v>
+        <v>32.40492421744965</v>
       </c>
       <c r="F4">
-        <v>17.12481230534304</v>
+        <v>29.1093643381119</v>
       </c>
       <c r="G4">
-        <v>39.84179417020221</v>
+        <v>67.72449716267104</v>
       </c>
       <c r="H4">
-        <v>3.024138450901854</v>
+        <v>5.140537975340572</v>
       </c>
       <c r="I4">
-        <v>144.8572167973196</v>
+        <v>246.2334433553122</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>56.42452410411874</v>
+        <v>95.91241062764266</v>
       </c>
       <c r="C5">
-        <v>1.505792976943929</v>
+        <v>2.559600397486104</v>
       </c>
       <c r="D5">
-        <v>14.48473317735829</v>
+        <v>24.62166404407862</v>
       </c>
       <c r="E5">
-        <v>20.62615176818895</v>
+        <v>35.06106554674881</v>
       </c>
       <c r="F5">
-        <v>12.4154889213737</v>
+        <v>21.10428914513113</v>
       </c>
       <c r="G5">
-        <v>27.47709942772565</v>
+        <v>46.70654976735933</v>
       </c>
       <c r="H5">
-        <v>1.344061533734158</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="I5">
-        <v>134.2778519094434</v>
+        <v>228.2502630730425</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>68.00227799391983</v>
+        <v>115.5926880044673</v>
       </c>
       <c r="C6">
-        <v>3.293922137064845</v>
+        <v>5.599125869500852</v>
       </c>
       <c r="D6">
-        <v>14.48473317735829</v>
+        <v>24.62166404407862</v>
       </c>
       <c r="E6">
-        <v>17.81349470889045</v>
+        <v>30.28001115401034</v>
       </c>
       <c r="F6">
-        <v>9.333022706411954</v>
+        <v>15.86460356427099</v>
       </c>
       <c r="G6">
-        <v>13.39508597101626</v>
+        <v>22.76944301158766</v>
       </c>
       <c r="H6">
-        <v>4.032184601202473</v>
+        <v>6.854050633787428</v>
       </c>
       <c r="I6">
-        <v>130.3547212958641</v>
+        <v>221.5815862817032</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>63.71169861122883</v>
+        <v>108.2994087412911</v>
       </c>
       <c r="C7">
-        <v>1.788129160120916</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="D7">
-        <v>9.861945993095009</v>
+        <v>16.76368615767054</v>
       </c>
       <c r="E7">
-        <v>25.6264309847196</v>
+        <v>43.56071780050612</v>
       </c>
       <c r="F7">
-        <v>5.479939937709772</v>
+        <v>9.314996588195806</v>
       </c>
       <c r="G7">
-        <v>6.869274856931413</v>
+        <v>11.67663744183983</v>
       </c>
       <c r="H7">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I7">
-        <v>114.3454656941062</v>
+        <v>194.3684848599651</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>47.53689538283027</v>
+        <v>80.80490358249192</v>
       </c>
       <c r="C8">
-        <v>1.505792976943929</v>
+        <v>2.559600397486104</v>
       </c>
       <c r="D8">
-        <v>9.245574368526567</v>
+        <v>15.71595577281613</v>
       </c>
       <c r="E8">
-        <v>21.25118667025528</v>
+        <v>36.12352207846848</v>
       </c>
       <c r="F8">
-        <v>4.195579014809044</v>
+        <v>7.131794262837416</v>
       </c>
       <c r="G8">
-        <v>8.93005731401084</v>
+        <v>15.17962867439178</v>
       </c>
       <c r="H8">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="I8">
-        <v>93.50512418595979</v>
+        <v>158.9433319838642</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>37.52554348988465</v>
+        <v>63.78725196841412</v>
       </c>
       <c r="C9">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D9">
-        <v>6.780087870252815</v>
+        <v>11.5250342333985</v>
       </c>
       <c r="E9">
-        <v>22.50125647438794</v>
+        <v>38.2484351419078</v>
       </c>
       <c r="F9">
-        <v>2.654345907328171</v>
+        <v>4.511951472407344</v>
       </c>
       <c r="G9">
-        <v>6.869274856931413</v>
+        <v>11.67663744183983</v>
       </c>
       <c r="H9">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="I9">
-        <v>78.90499701723321</v>
+        <v>134.1255171337344</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>27.75255711819962</v>
+        <v>47.17478253562387</v>
       </c>
       <c r="C10">
-        <v>1.411680915884934</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="D10">
-        <v>1.849114873705313</v>
+        <v>3.143191154563227</v>
       </c>
       <c r="E10">
-        <v>17.18845980682413</v>
+        <v>29.21755462229068</v>
       </c>
       <c r="F10">
-        <v>2.568721845801456</v>
+        <v>4.366404650716785</v>
       </c>
       <c r="G10">
-        <v>6.525811114084845</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="H10">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I10">
-        <v>57.46435336621706</v>
+        <v>97.67994934866012</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>16.48127318430504</v>
+        <v>28.0154536775975</v>
       </c>
       <c r="C11">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="D11">
-        <v>3.390043935126407</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="E11">
-        <v>10.00055843306131</v>
+        <v>16.99930450751458</v>
       </c>
       <c r="F11">
-        <v>2.483097784274741</v>
+        <v>4.220857829026225</v>
       </c>
       <c r="G11">
-        <v>5.495419885545132</v>
+        <v>9.341309953471868</v>
       </c>
       <c r="H11">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I11">
-        <v>39.50397746057211</v>
+        <v>67.15026431825871</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>10.31782184885213</v>
+        <v>17.53860013287612</v>
       </c>
       <c r="C12">
-        <v>1.129344732707947</v>
+        <v>1.919700298114578</v>
       </c>
       <c r="D12">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="E12">
-        <v>5.625314118596985</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="F12">
-        <v>0.9418646767938671</v>
+        <v>1.601015038596155</v>
       </c>
       <c r="G12">
-        <v>3.778101171312278</v>
+        <v>6.42215059301191</v>
       </c>
       <c r="I12">
-        <v>22.40881817283164</v>
+        <v>38.09130523293012</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>6.061294683484095</v>
+        <v>10.30320403845528</v>
       </c>
       <c r="C13">
-        <v>0.5646723663539736</v>
+        <v>0.959850149057289</v>
       </c>
       <c r="D13">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="E13">
-        <v>2.812657059298493</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="F13">
-        <v>2.483097784274741</v>
+        <v>4.220857829026225</v>
       </c>
       <c r="G13">
-        <v>5.495419885545132</v>
+        <v>9.341309953471868</v>
       </c>
       <c r="I13">
-        <v>18.03351340352487</v>
+        <v>30.65400674760354</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>3.677639470877988</v>
+        <v>6.251382225579604</v>
       </c>
       <c r="C14">
-        <v>0.4705603052949778</v>
+        <v>0.7998751242144077</v>
       </c>
       <c r="D14">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="E14">
-        <v>0.3125174510331659</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="F14">
-        <v>2.568721845801456</v>
+        <v>4.366404650716785</v>
       </c>
       <c r="G14">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="I14">
-        <v>12.41902516686566</v>
+        <v>21.11030018084813</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>3.234960645679711</v>
+        <v>5.498901031759837</v>
       </c>
       <c r="C15">
-        <v>0.8470085495309601</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="D15">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="E15">
-        <v>0.9375523530994976</v>
+        <v>1.593684797579491</v>
       </c>
       <c r="F15">
-        <v>1.541233107480874</v>
+        <v>2.619842790430071</v>
       </c>
       <c r="G15">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="H15">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I15">
-        <v>11.81016262908167</v>
+        <v>20.07533400848011</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>2.860386255127325</v>
+        <v>4.862186175450804</v>
       </c>
       <c r="C16">
-        <v>0.2823361831769868</v>
+        <v>0.4799250745286445</v>
       </c>
       <c r="D16">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="E16">
-        <v>2.500139608265327</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="F16">
-        <v>1.369984984427443</v>
+        <v>2.328749147048951</v>
       </c>
       <c r="G16">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="I16">
-        <v>12.09424731257094</v>
+        <v>20.55823124595734</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>7.389331159078918</v>
+        <v>12.56064761991458</v>
       </c>
       <c r="C17">
-        <v>0.8470085495309601</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="D17">
-        <v>2.465486498273752</v>
+        <v>4.190921539417634</v>
       </c>
       <c r="E17">
-        <v>1.875104706198995</v>
+        <v>3.187369595158982</v>
       </c>
       <c r="F17">
-        <v>3.339338399541893</v>
+        <v>5.67632604593182</v>
       </c>
       <c r="G17">
-        <v>7.89966608547113</v>
+        <v>13.42813305811581</v>
       </c>
       <c r="H17">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I17">
-        <v>23.98394308981242</v>
+        <v>40.76875852519923</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>19.34165943943238</v>
+        <v>32.87763985304829</v>
       </c>
       <c r="C18">
-        <v>0.6587844274129693</v>
+        <v>1.119825173900171</v>
       </c>
       <c r="D18">
-        <v>5.547344621115943</v>
+        <v>9.429573463689678</v>
       </c>
       <c r="E18">
-        <v>11.25062823719397</v>
+        <v>19.1242175709539</v>
       </c>
       <c r="F18">
-        <v>3.938706830228899</v>
+        <v>6.695153797765736</v>
       </c>
       <c r="G18">
-        <v>17.51665088517511</v>
+        <v>29.77542547669156</v>
       </c>
       <c r="H18">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I18">
-        <v>58.92580520742635</v>
+        <v>100.1641771083472</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>37.21907353397815</v>
+        <v>63.26630344961578</v>
       </c>
       <c r="C19">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D19">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E19">
-        <v>22.18873902335478</v>
+        <v>37.71720687604797</v>
       </c>
       <c r="F19">
-        <v>7.534917414350937</v>
+        <v>12.80812030876924</v>
       </c>
       <c r="G19">
-        <v>24.72938948495308</v>
+        <v>42.03589479062339</v>
       </c>
       <c r="H19">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I19">
-        <v>102.2929017643302</v>
+        <v>173.8811085089395</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>64.05222078445827</v>
+        <v>108.8782404288448</v>
       </c>
       <c r="C20">
-        <v>1.788129160120916</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="D20">
-        <v>10.78650342994766</v>
+        <v>18.33528173495215</v>
       </c>
       <c r="E20">
-        <v>26.87650078885226</v>
+        <v>45.68563086394543</v>
       </c>
       <c r="F20">
-        <v>9.333022706411954</v>
+        <v>15.86460356427099</v>
       </c>
       <c r="G20">
-        <v>34.68983802750365</v>
+        <v>58.96701908129115</v>
       </c>
       <c r="H20">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I20">
-        <v>148.5342610475953</v>
+        <v>252.4838138037661</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>71.71396968212076</v>
+        <v>121.9019533988023</v>
       </c>
       <c r="C21">
-        <v>1.976353282238907</v>
+        <v>3.359475521700511</v>
       </c>
       <c r="D21">
-        <v>14.17654736507407</v>
+        <v>24.09779885165141</v>
       </c>
       <c r="E21">
-        <v>22.81377392542111</v>
+        <v>38.77966340776763</v>
       </c>
       <c r="F21">
-        <v>10.61738362931269</v>
+        <v>18.04780588962938</v>
       </c>
       <c r="G21">
-        <v>41.55911288443507</v>
+        <v>70.643656523131</v>
       </c>
       <c r="H21">
-        <v>6.888315360387558</v>
+        <v>11.70900316605352</v>
       </c>
       <c r="I21">
-        <v>169.7454561289902</v>
+        <v>288.5393567587358</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>50.0908116820511</v>
+        <v>85.14614123914447</v>
       </c>
       <c r="C22">
-        <v>3.105698014946854</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="D22">
-        <v>14.17654736507407</v>
+        <v>24.09779885165141</v>
       </c>
       <c r="E22">
-        <v>20.62615176818895</v>
+        <v>35.06106554674881</v>
       </c>
       <c r="F22">
-        <v>14.55609045954158</v>
+        <v>24.74295968739512</v>
       </c>
       <c r="G22">
-        <v>74.18816845485929</v>
+        <v>126.1076843718702</v>
       </c>
       <c r="H22">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I22">
-        <v>177.7515138949625</v>
+        <v>302.148338175072</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>35.24404492924737</v>
+        <v>59.90907966180455</v>
       </c>
       <c r="C23">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="D23">
-        <v>11.4028750545161</v>
+        <v>19.38301211980656</v>
       </c>
       <c r="E23">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F23">
-        <v>18.40917322824377</v>
+        <v>31.29256666347029</v>
       </c>
       <c r="G23">
-        <v>68.00582108362102</v>
+        <v>115.5987106742144</v>
       </c>
       <c r="H23">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="I23">
-        <v>154.2126384174363</v>
+        <v>262.1361213888495</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>39.70488539855307</v>
+        <v>67.49177476875764</v>
       </c>
       <c r="C24">
-        <v>3.482146259182837</v>
+        <v>5.919075919186615</v>
       </c>
       <c r="D24">
-        <v>9.245574368526567</v>
+        <v>15.71595577281613</v>
       </c>
       <c r="E24">
-        <v>15.93839000269146</v>
+        <v>27.09264155885136</v>
       </c>
       <c r="F24">
-        <v>17.03918824381633</v>
+        <v>28.96381751642134</v>
       </c>
       <c r="G24">
-        <v>85.17900822594953</v>
+        <v>144.7903042788139</v>
       </c>
       <c r="H24">
-        <v>4.368199984636012</v>
+        <v>7.425221519936382</v>
       </c>
       <c r="I24">
-        <v>174.9573924833558</v>
+        <v>297.3987913347833</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>37.08286466468636</v>
+        <v>63.03477077459436</v>
       </c>
       <c r="C25">
-        <v>3.19981007600585</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="D25">
-        <v>15.10110480192673</v>
+        <v>25.66939442893302</v>
       </c>
       <c r="E25">
-        <v>20.93866921922212</v>
+        <v>35.59229381260864</v>
       </c>
       <c r="F25">
-        <v>14.6417145210683</v>
+        <v>24.88850650908568</v>
       </c>
       <c r="G25">
-        <v>83.4616895117167</v>
+        <v>141.871144918354</v>
       </c>
       <c r="H25">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="I25">
-        <v>176.4419450952273</v>
+        <v>299.9222866051274</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>37.76390901114526</v>
+        <v>64.19243414970165</v>
       </c>
       <c r="C26">
-        <v>1.976353282238907</v>
+        <v>3.359475521700511</v>
       </c>
       <c r="D26">
-        <v>10.78650342994766</v>
+        <v>18.33528173495215</v>
       </c>
       <c r="E26">
-        <v>14.6883201985588</v>
+        <v>24.96772849541203</v>
       </c>
       <c r="F26">
-        <v>14.81296264412173</v>
+        <v>25.17960015246679</v>
       </c>
       <c r="G26">
-        <v>91.36135559718784</v>
+        <v>155.2992779764698</v>
       </c>
       <c r="H26">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="I26">
-        <v>173.4054964638014</v>
+        <v>294.7608233475967</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>42.803637174941</v>
+        <v>72.75914312549592</v>
       </c>
       <c r="C27">
-        <v>1.411680915884934</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="D27">
-        <v>21.2648210476111</v>
+        <v>36.14669827747713</v>
       </c>
       <c r="E27">
-        <v>16.25090745372463</v>
+        <v>27.62386982471118</v>
       </c>
       <c r="F27">
-        <v>14.81296264412173</v>
+        <v>25.17960015246679</v>
       </c>
       <c r="G27">
-        <v>57.7019087982239</v>
+        <v>98.08375451145459</v>
       </c>
       <c r="H27">
-        <v>3.360153834335394</v>
+        <v>5.711708861489523</v>
       </c>
       <c r="I27">
-        <v>157.6060718688427</v>
+        <v>267.9044001257384</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>44.57435247573411</v>
+        <v>75.76906790077501</v>
       </c>
       <c r="C28">
-        <v>2.635137709651877</v>
+        <v>4.479300695600682</v>
       </c>
       <c r="D28">
-        <v>10.47831761766344</v>
+        <v>17.81141654252495</v>
       </c>
       <c r="E28">
-        <v>15.31335510062513</v>
+        <v>26.0301850271317</v>
       </c>
       <c r="F28">
-        <v>15.84045138244231</v>
+        <v>26.92616201275351</v>
       </c>
       <c r="G28">
-        <v>73.50124096916616</v>
+        <v>124.9400206276862</v>
       </c>
       <c r="H28">
-        <v>2.520115375751545</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="I28">
-        <v>164.8629706310346</v>
+        <v>280.2399344525892</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>46.75369438440257</v>
+        <v>79.47359070111848</v>
       </c>
       <c r="C29">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="D29">
-        <v>16.02566223877939</v>
+        <v>27.24099000621463</v>
       </c>
       <c r="E29">
-        <v>20.93866921922212</v>
+        <v>35.59229381260864</v>
       </c>
       <c r="F29">
-        <v>14.29921827496144</v>
+        <v>24.30631922232344</v>
       </c>
       <c r="G29">
-        <v>55.29766259829788</v>
+        <v>93.99693140681065</v>
       </c>
       <c r="H29">
-        <v>2.520115375751545</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="I29">
-        <v>157.1525909462408</v>
+        <v>267.1335571429933</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>62.48581878760285</v>
+        <v>106.2156146660979</v>
       </c>
       <c r="C30">
-        <v>2.352801526474889</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="D30">
-        <v>12.63561830365297</v>
+        <v>21.47847288951538</v>
       </c>
       <c r="E30">
-        <v>20.00111686612262</v>
+        <v>33.99860901502915</v>
       </c>
       <c r="F30">
-        <v>9.333022706411954</v>
+        <v>15.86460356427099</v>
       </c>
       <c r="G30">
-        <v>41.21564914158849</v>
+        <v>70.05982465103899</v>
       </c>
       <c r="H30">
-        <v>2.184099992318006</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="I30">
-        <v>150.2081273241718</v>
+        <v>255.3291111669927</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>60.57889461751795</v>
+        <v>102.9741572157974</v>
       </c>
       <c r="C31">
-        <v>3.482146259182837</v>
+        <v>5.919075919186615</v>
       </c>
       <c r="D31">
-        <v>9.861945993095009</v>
+        <v>16.76368615767054</v>
       </c>
       <c r="E31">
-        <v>30.3141927502171</v>
+        <v>51.52914178840356</v>
       </c>
       <c r="F31">
-        <v>4.45245119938919</v>
+        <v>7.568434727909095</v>
       </c>
       <c r="G31">
-        <v>20.95128831364082</v>
+        <v>35.6137441976115</v>
       </c>
       <c r="H31">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I31">
-        <v>129.9769345164764</v>
+        <v>220.9394108927276</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>51.8615269828442</v>
+        <v>88.15606601442347</v>
       </c>
       <c r="C32">
-        <v>4.235042747654801</v>
+        <v>7.198876117929668</v>
       </c>
       <c r="D32">
-        <v>7.088273682537035</v>
+        <v>12.0488994258257</v>
       </c>
       <c r="E32">
-        <v>26.56398333781909</v>
+        <v>45.15440259808561</v>
       </c>
       <c r="F32">
-        <v>4.623699322442621</v>
+        <v>7.859528371290214</v>
       </c>
       <c r="G32">
-        <v>17.51665088517511</v>
+        <v>29.77542547669156</v>
       </c>
       <c r="H32">
-        <v>1.344061533734158</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="I32">
-        <v>113.233238492207</v>
+        <v>192.4778815488421</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>37.66175235917641</v>
+        <v>64.01878464343559</v>
       </c>
       <c r="C33">
-        <v>4.423266869772793</v>
+        <v>7.518826167615429</v>
       </c>
       <c r="D33">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E33">
-        <v>26.56398333781909</v>
+        <v>45.15440259808561</v>
       </c>
       <c r="F33">
-        <v>3.082466214961748</v>
+        <v>5.239685580860143</v>
       </c>
       <c r="G33">
-        <v>10.99083977109026</v>
+        <v>18.68261990694374</v>
       </c>
       <c r="H33">
-        <v>1.344061533734158</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="I33">
-        <v>92.07920120594416</v>
+        <v>156.5194974446437</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>28.12713150875201</v>
+        <v>47.81149739193292</v>
       </c>
       <c r="C34">
-        <v>3.38803419812384</v>
+        <v>5.759100894343733</v>
       </c>
       <c r="D34">
-        <v>4.622787184263283</v>
+        <v>7.857977886408064</v>
       </c>
       <c r="E34">
-        <v>17.50097725785729</v>
+        <v>29.74878288815052</v>
       </c>
       <c r="F34">
-        <v>1.798105292061019</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="G34">
-        <v>10.99083977109026</v>
+        <v>18.68261990694374</v>
       </c>
       <c r="I34">
-        <v>66.42787521214771</v>
+        <v>112.9164622232807</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>19.61407717801594</v>
+        <v>33.34070520309123</v>
       </c>
       <c r="C35">
-        <v>1.69401709906192</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="D35">
-        <v>3.08185812284219</v>
+        <v>5.238651924272043</v>
       </c>
       <c r="E35">
-        <v>14.37580274752563</v>
+        <v>24.43650022955221</v>
       </c>
       <c r="F35">
-        <v>1.883729353587734</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="G35">
-        <v>6.525811114084845</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="H35">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I35">
-        <v>47.5113109985518</v>
+        <v>80.76141433717643</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>11.20317949924869</v>
+        <v>19.04356252051565</v>
       </c>
       <c r="C36">
-        <v>3.670370381300828</v>
+        <v>6.239025968872376</v>
       </c>
       <c r="D36">
-        <v>0.308185812284219</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="E36">
-        <v>6.875383922729651</v>
+        <v>11.68702184891627</v>
       </c>
       <c r="F36">
-        <v>5.565563999236488</v>
+        <v>9.460543409886368</v>
       </c>
       <c r="G36">
-        <v>9.273521056857412</v>
+        <v>15.76346054648377</v>
       </c>
       <c r="H36">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I36">
-        <v>37.06421236337405</v>
+        <v>63.00306493017612</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>5.925085814192312</v>
+        <v>10.07167136343381</v>
       </c>
       <c r="C37">
-        <v>1.882241221179911</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="D37">
-        <v>0.308185812284219</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="E37">
-        <v>2.500139608265327</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="F37">
-        <v>3.510586522595324</v>
+        <v>5.96741968931294</v>
       </c>
       <c r="G37">
-        <v>7.212738599777987</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="H37">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="I37">
-        <v>21.84300065344539</v>
+        <v>37.12950851206548</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>4.256527165368039</v>
+        <v>7.235396094420839</v>
       </c>
       <c r="C38">
-        <v>0.4705603052949778</v>
+        <v>0.7998751242144077</v>
       </c>
       <c r="D38">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="F38">
-        <v>2.226225599694595</v>
+        <v>3.784217363954547</v>
       </c>
       <c r="G38">
-        <v>6.869274856931413</v>
+        <v>11.67663744183983</v>
       </c>
       <c r="H38">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="I38">
-        <v>15.27899801044131</v>
+        <v>25.97178362465642</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>3.098751776387934</v>
+        <v>5.26736835673837</v>
       </c>
       <c r="C39">
-        <v>0.6587844274129693</v>
+        <v>1.119825173900171</v>
       </c>
       <c r="D39">
-        <v>1.540929061421095</v>
+        <v>2.619325962136021</v>
       </c>
       <c r="F39">
-        <v>1.027488738320582</v>
+        <v>1.746561860286714</v>
       </c>
       <c r="G39">
-        <v>6.182347371238269</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="H39">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I39">
-        <v>12.67630906649762</v>
+        <v>21.5476404937916</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>3.132803993710876</v>
+        <v>5.325251525493739</v>
       </c>
       <c r="C40">
-        <v>0.5646723663539736</v>
+        <v>0.959850149057289</v>
       </c>
       <c r="D40">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="E40">
-        <v>2.812657059298493</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="F40">
-        <v>1.712481230534304</v>
+        <v>2.91093643381119</v>
       </c>
       <c r="G40">
-        <v>5.495419885545132</v>
+        <v>9.341309953471868</v>
       </c>
       <c r="H40">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I40">
-        <v>14.67042154344476</v>
+        <v>24.93730372557592</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>8.002271070891917</v>
+        <v>13.60254465751118</v>
       </c>
       <c r="C41">
-        <v>0.7528964884719646</v>
+        <v>1.279800198743052</v>
       </c>
       <c r="D41">
-        <v>1.232743249136876</v>
+        <v>2.095460769708817</v>
       </c>
       <c r="E41">
-        <v>2.187622157232161</v>
+        <v>3.718597861018814</v>
       </c>
       <c r="F41">
-        <v>1.626857169007589</v>
+        <v>2.765389612120631</v>
       </c>
       <c r="G41">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="H41">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I41">
-        <v>22.55699139762154</v>
+        <v>38.34317534447676</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>18.55845844100466</v>
+        <v>31.54632697167486</v>
       </c>
       <c r="C42">
-        <v>1.505792976943929</v>
+        <v>2.559600397486104</v>
       </c>
       <c r="D42">
-        <v>4.622787184263283</v>
+        <v>7.857977886408064</v>
       </c>
       <c r="E42">
-        <v>12.50069804132664</v>
+        <v>21.24913063439322</v>
       </c>
       <c r="F42">
-        <v>4.195579014809044</v>
+        <v>7.131794262837416</v>
       </c>
       <c r="G42">
-        <v>15.11240468524911</v>
+        <v>25.68860237204764</v>
       </c>
       <c r="H42">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I42">
-        <v>57.50376649389727</v>
+        <v>97.74694518329416</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>36.60613362216515</v>
+        <v>62.22440641201923</v>
       </c>
       <c r="C43">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D43">
-        <v>5.239158808831721</v>
+        <v>8.905708271262474</v>
       </c>
       <c r="E43">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="F43">
-        <v>7.192421168244076</v>
+        <v>12.225933022007</v>
       </c>
       <c r="G43">
-        <v>18.89050585656138</v>
+        <v>32.11075296505955</v>
       </c>
       <c r="H43">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I43">
-        <v>92.41239221642748</v>
+        <v>157.0858673613122</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>59.72758918444438</v>
+        <v>101.5270779969132</v>
       </c>
       <c r="C44">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="D44">
-        <v>11.71106086680032</v>
+        <v>19.90687731223377</v>
       </c>
       <c r="E44">
-        <v>27.18901823988543</v>
+        <v>46.21685912980525</v>
       </c>
       <c r="F44">
-        <v>9.589894890992104</v>
+        <v>16.30124402934266</v>
       </c>
       <c r="G44">
-        <v>30.91173685619138</v>
+        <v>52.54486848827925</v>
       </c>
       <c r="H44">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="I44">
-        <v>142.4629611937408</v>
+        <v>242.1636026212682</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>69.67083664274409</v>
+        <v>118.4289632734803</v>
       </c>
       <c r="C45">
-        <v>1.976353282238907</v>
+        <v>3.359475521700511</v>
       </c>
       <c r="D45">
-        <v>13.25198992822141</v>
+        <v>22.52620327436979</v>
       </c>
       <c r="E45">
-        <v>23.43880882748744</v>
+        <v>39.8421199394873</v>
       </c>
       <c r="F45">
-        <v>9.589894890992104</v>
+        <v>16.30124402934266</v>
       </c>
       <c r="G45">
-        <v>36.06369299888993</v>
+        <v>61.30234656965913</v>
       </c>
       <c r="H45">
-        <v>3.864176909485704</v>
+        <v>6.568465190712952</v>
       </c>
       <c r="I45">
-        <v>157.8557534800596</v>
+        <v>268.3288177987527</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>58.63791823011012</v>
+        <v>99.67481659674141</v>
       </c>
       <c r="C46">
-        <v>2.729249770710871</v>
+        <v>4.639275720443563</v>
       </c>
       <c r="D46">
-        <v>16.64203386334783</v>
+        <v>28.28872039106904</v>
       </c>
       <c r="E46">
-        <v>20.93866921922212</v>
+        <v>35.59229381260864</v>
       </c>
       <c r="F46">
-        <v>18.32354916671705</v>
+        <v>31.14701984177973</v>
       </c>
       <c r="G46">
-        <v>69.72313979785386</v>
+        <v>118.5178700346743</v>
       </c>
       <c r="H46">
-        <v>3.024138450901854</v>
+        <v>5.140537975340572</v>
       </c>
       <c r="I46">
-        <v>190.0186984988637</v>
+        <v>323.0005343726573</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>40.1816164410743</v>
+        <v>68.30213913133272</v>
       </c>
       <c r="C47">
-        <v>3.38803419812384</v>
+        <v>5.759100894343733</v>
       </c>
       <c r="D47">
-        <v>9.553760180810787</v>
+        <v>16.23982096524334</v>
       </c>
       <c r="E47">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="F47">
-        <v>22.43350411999939</v>
+        <v>38.13326728292658</v>
       </c>
       <c r="G47">
-        <v>49.11531522705963</v>
+        <v>83.48795770915478</v>
       </c>
       <c r="H47">
-        <v>2.856130759185085</v>
+        <v>4.854952532266095</v>
       </c>
       <c r="I47">
-        <v>145.9668905372098</v>
+        <v>248.1197062009972</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>44.06356921588996</v>
+        <v>74.90082036944455</v>
       </c>
       <c r="C48">
-        <v>3.858594503418819</v>
+        <v>6.55897601855814</v>
       </c>
       <c r="D48">
-        <v>23.11393592131641</v>
+        <v>39.28988943204033</v>
       </c>
       <c r="E48">
-        <v>19.68859941508945</v>
+        <v>33.46738074916932</v>
       </c>
       <c r="F48">
-        <v>21.66288756625895</v>
+        <v>36.82334588771155</v>
       </c>
       <c r="G48">
-        <v>64.22771991230873</v>
+        <v>109.1765600812025</v>
       </c>
       <c r="H48">
-        <v>4.032184601202473</v>
+        <v>6.854050633787428</v>
       </c>
       <c r="I48">
-        <v>180.6474911354848</v>
+        <v>307.0710231719138</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>37.08286466468636</v>
+        <v>63.03477077459436</v>
       </c>
       <c r="C49">
-        <v>3.19981007600585</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="D49">
-        <v>15.10110480192673</v>
+        <v>25.66939442893302</v>
       </c>
       <c r="E49">
-        <v>20.93866921922212</v>
+        <v>35.59229381260864</v>
       </c>
       <c r="F49">
-        <v>14.6417145210683</v>
+        <v>24.88850650908568</v>
       </c>
       <c r="G49">
-        <v>83.4616895117167</v>
+        <v>141.871144918354</v>
       </c>
       <c r="H49">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="I49">
-        <v>176.4419450952273</v>
+        <v>299.9222866051274</v>
       </c>
     </row>
   </sheetData>
